--- a/openrent.xlsx
+++ b/openrent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>Post Code</t>
   </si>
@@ -31,10 +31,595 @@
     <t>Average Let Price</t>
   </si>
   <si>
+    <t>BD14</t>
+  </si>
+  <si>
+    <t>BD9</t>
+  </si>
+  <si>
+    <t>BD13</t>
+  </si>
+  <si>
+    <t>BD12</t>
+  </si>
+  <si>
+    <t>BD15</t>
+  </si>
+  <si>
+    <t>BD10</t>
+  </si>
+  <si>
     <t>BD1</t>
   </si>
   <si>
+    <t>BD3</t>
+  </si>
+  <si>
+    <t>BD5</t>
+  </si>
+  <si>
+    <t>BD2</t>
+  </si>
+  <si>
+    <t>BD7</t>
+  </si>
+  <si>
+    <t>BD20</t>
+  </si>
+  <si>
+    <t>BD19</t>
+  </si>
+  <si>
+    <t>BD4</t>
+  </si>
+  <si>
+    <t>BD17</t>
+  </si>
+  <si>
+    <t>BD21</t>
+  </si>
+  <si>
+    <t>BD8</t>
+  </si>
+  <si>
+    <t>BD11</t>
+  </si>
+  <si>
+    <t>BD99</t>
+  </si>
+  <si>
+    <t>BD98</t>
+  </si>
+  <si>
+    <t>FY4</t>
+  </si>
+  <si>
+    <t>FY3</t>
+  </si>
+  <si>
+    <t>FY2</t>
+  </si>
+  <si>
+    <t>HD2</t>
+  </si>
+  <si>
+    <t>HD3</t>
+  </si>
+  <si>
+    <t>HD7</t>
+  </si>
+  <si>
+    <t>HD5</t>
+  </si>
+  <si>
+    <t>HD8</t>
+  </si>
+  <si>
+    <t>BD22</t>
+  </si>
+  <si>
+    <t>HD9</t>
+  </si>
+  <si>
+    <t>HG1</t>
+  </si>
+  <si>
+    <t>BD18</t>
+  </si>
+  <si>
+    <t>HG2</t>
+  </si>
+  <si>
+    <t>HG3</t>
+  </si>
+  <si>
+    <t>BD6</t>
+  </si>
+  <si>
+    <t>HG5</t>
+  </si>
+  <si>
+    <t>LS10</t>
+  </si>
+  <si>
+    <t>LS11</t>
+  </si>
+  <si>
+    <t>LS12</t>
+  </si>
+  <si>
+    <t>BD97</t>
+  </si>
+  <si>
+    <t>LS13</t>
+  </si>
+  <si>
+    <t>LS15</t>
+  </si>
+  <si>
+    <t>LS14</t>
+  </si>
+  <si>
+    <t>LS16</t>
+  </si>
+  <si>
+    <t>LS17</t>
+  </si>
+  <si>
+    <t>LS19</t>
+  </si>
+  <si>
+    <t>FY1</t>
+  </si>
+  <si>
+    <t>LS20</t>
+  </si>
+  <si>
+    <t>LS21</t>
+  </si>
+  <si>
+    <t>LS18</t>
+  </si>
+  <si>
+    <t>LS23</t>
+  </si>
+  <si>
+    <t>LS22</t>
+  </si>
+  <si>
+    <t>HG4</t>
+  </si>
+  <si>
+    <t>HD1</t>
+  </si>
+  <si>
+    <t>LS25</t>
+  </si>
+  <si>
+    <t>LS26</t>
+  </si>
+  <si>
+    <t>LS27</t>
+  </si>
+  <si>
+    <t>LS99</t>
+  </si>
+  <si>
+    <t>LS28</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>LS98</t>
+  </si>
+  <si>
+    <t>LS29</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>LS24</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>HD4</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>M15</t>
+  </si>
+  <si>
+    <t>M19</t>
+  </si>
+  <si>
+    <t>M20</t>
+  </si>
+  <si>
+    <t>M21</t>
+  </si>
+  <si>
+    <t>M23</t>
+  </si>
+  <si>
+    <t>M18</t>
+  </si>
+  <si>
+    <t>M24</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>M27</t>
+  </si>
+  <si>
+    <t>M30</t>
+  </si>
+  <si>
+    <t>M28</t>
+  </si>
+  <si>
+    <t>M35</t>
+  </si>
+  <si>
+    <t>M38</t>
+  </si>
+  <si>
+    <t>M40</t>
+  </si>
+  <si>
+    <t>M44</t>
+  </si>
+  <si>
+    <t>M50</t>
+  </si>
+  <si>
+    <t>M60</t>
+  </si>
+  <si>
+    <t>M99</t>
+  </si>
+  <si>
+    <t>NG18</t>
+  </si>
+  <si>
+    <t>OL2</t>
+  </si>
+  <si>
+    <t>OL4</t>
+  </si>
+  <si>
+    <t>OL3</t>
+  </si>
+  <si>
+    <t>M90</t>
+  </si>
+  <si>
+    <t>M22</t>
+  </si>
+  <si>
+    <t>M61</t>
+  </si>
+  <si>
+    <t>OL8</t>
+  </si>
+  <si>
+    <t>OL9</t>
+  </si>
+  <si>
+    <t>OL10</t>
+  </si>
+  <si>
+    <t>OL11</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>OL12</t>
+  </si>
+  <si>
+    <t>OL15</t>
+  </si>
+  <si>
+    <t>OL16</t>
+  </si>
+  <si>
+    <t>PR1</t>
+  </si>
+  <si>
+    <t>NG19</t>
+  </si>
+  <si>
+    <t>PR2</t>
+  </si>
+  <si>
+    <t>PR11</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>OL1</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>S35</t>
+  </si>
+  <si>
+    <t>S36</t>
+  </si>
+  <si>
+    <t>S63</t>
+  </si>
+  <si>
+    <t>S70</t>
+  </si>
+  <si>
+    <t>S71</t>
+  </si>
+  <si>
+    <t>S72</t>
+  </si>
+  <si>
+    <t>S74</t>
+  </si>
+  <si>
+    <t>S73</t>
+  </si>
+  <si>
+    <t>S75</t>
+  </si>
+  <si>
+    <t>S97</t>
+  </si>
+  <si>
+    <t>WA9</t>
+  </si>
+  <si>
+    <t>WA10</t>
+  </si>
+  <si>
+    <t>WA11</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
     <t>WF1</t>
+  </si>
+  <si>
+    <t>WA12</t>
+  </si>
+  <si>
+    <t>WF3</t>
+  </si>
+  <si>
+    <t>WF2</t>
+  </si>
+  <si>
+    <t>WF5</t>
+  </si>
+  <si>
+    <t>WF6</t>
+  </si>
+  <si>
+    <t>S96</t>
+  </si>
+  <si>
+    <t>WF7</t>
+  </si>
+  <si>
+    <t>WF4</t>
+  </si>
+  <si>
+    <t>WF10</t>
+  </si>
+  <si>
+    <t>WF8</t>
+  </si>
+  <si>
+    <t>WF11</t>
+  </si>
+  <si>
+    <t>WF13</t>
+  </si>
+  <si>
+    <t>WF14</t>
+  </si>
+  <si>
+    <t>WF15</t>
+  </si>
+  <si>
+    <t>WF12</t>
+  </si>
+  <si>
+    <t>WF9</t>
+  </si>
+  <si>
+    <t>WF17</t>
+  </si>
+  <si>
+    <t>WF90</t>
+  </si>
+  <si>
+    <t>WF16</t>
+  </si>
+  <si>
+    <t>WS7</t>
+  </si>
+  <si>
+    <t>WV1</t>
+  </si>
+  <si>
+    <t>WV4</t>
+  </si>
+  <si>
+    <t>WV6</t>
+  </si>
+  <si>
+    <t>WS13</t>
+  </si>
+  <si>
+    <t>WV7</t>
+  </si>
+  <si>
+    <t>WV8</t>
+  </si>
+  <si>
+    <t>WV10</t>
+  </si>
+  <si>
+    <t>WV9</t>
+  </si>
+  <si>
+    <t>WV11</t>
+  </si>
+  <si>
+    <t>WV13</t>
+  </si>
+  <si>
+    <t>WV14</t>
+  </si>
+  <si>
+    <t>WV98</t>
+  </si>
+  <si>
+    <t>WV12</t>
+  </si>
+  <si>
+    <t>YO1</t>
+  </si>
+  <si>
+    <t>YO3</t>
+  </si>
+  <si>
+    <t>YO6</t>
+  </si>
+  <si>
+    <t>WV2</t>
+  </si>
+  <si>
+    <t>WS14</t>
+  </si>
+  <si>
+    <t>WV3</t>
+  </si>
+  <si>
+    <t>YO24</t>
+  </si>
+  <si>
+    <t>YO23</t>
+  </si>
+  <si>
+    <t>YO30</t>
+  </si>
+  <si>
+    <t>YO26</t>
+  </si>
+  <si>
+    <t>YO8</t>
+  </si>
+  <si>
+    <t>YO41</t>
+  </si>
+  <si>
+    <t>YO60</t>
+  </si>
+  <si>
+    <t>YO31</t>
+  </si>
+  <si>
+    <t>YO90</t>
+  </si>
+  <si>
+    <t>YO91</t>
+  </si>
+  <si>
+    <t>YO10</t>
+  </si>
+  <si>
+    <t>YO32</t>
+  </si>
+  <si>
+    <t>YO19</t>
   </si>
 </sst>
 </file>
@@ -366,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -391,7 +976,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -408,19 +993,3334 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>22344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>75</v>
+      </c>
+      <c r="E4">
+        <v>2811.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>7117.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>73.33</v>
+      </c>
+      <c r="E6">
+        <v>2602.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>76.47</v>
+      </c>
+      <c r="E8">
+        <v>1860.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>73.33</v>
+      </c>
+      <c r="E9">
+        <v>2348.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>3424.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>66.67</v>
+      </c>
+      <c r="E11">
+        <v>10662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>75</v>
+      </c>
+      <c r="E12">
+        <v>3844.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>33.33</v>
+      </c>
+      <c r="E13">
+        <v>25496.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>57.14</v>
+      </c>
+      <c r="E14">
+        <v>6959.58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>10105.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>6879.11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>75</v>
+      </c>
+      <c r="E17">
+        <v>3945.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>5596.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>6980</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="D3">
-        <v>66.67</v>
-      </c>
-      <c r="E3">
-        <v>1851.25</v>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>3505.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21">
+        <v>3610.17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>3772.67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>8082.33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>41549.61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>57.14</v>
+      </c>
+      <c r="E30">
+        <v>8524.33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>40</v>
+      </c>
+      <c r="E33">
+        <v>18327.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>45.45</v>
+      </c>
+      <c r="E75">
+        <v>13161.34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>114</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>128</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>100</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>148</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>155</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>157</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>159</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>165</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>160</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>164</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>167</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>173</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>187</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>186</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>188</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>193</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>199</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>201</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>200</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
